--- a/HW 1/Project Plan.xlsx
+++ b/HW 1/Project Plan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marakovitsm/Github/capping/HW 1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="0" windowWidth="25260" windowHeight="12200" activeTab="1"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="25600" windowHeight="14400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project Timeline" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <definedName name="ProjectEnd">'Project Timeline'!$L$21</definedName>
     <definedName name="ProjectStart">'Project Timeline'!$L$19</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="153">
   <si>
     <t>Project Start</t>
   </si>
@@ -1302,8 +1307,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854823"/>
+                      <c:h val="0.0478316823300313"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1328,8 +1333,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854823"/>
+                      <c:h val="0.0478316823300313"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1354,8 +1359,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854823"/>
+                      <c:h val="0.0478316823300313"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1380,8 +1385,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854823"/>
+                      <c:h val="0.0478316823300313"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1406,8 +1411,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854823"/>
+                      <c:h val="0.0478316823300313"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1432,8 +1437,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854823"/>
+                      <c:h val="0.0478316823300313"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1458,8 +1463,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854823"/>
+                      <c:h val="0.0478316823300313"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1484,8 +1489,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854823"/>
+                      <c:h val="0.0478316823300313"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1510,8 +1515,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854823"/>
+                      <c:h val="0.0478316823300313"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1536,8 +1541,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854823"/>
+                      <c:h val="0.0478316823300313"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1562,8 +1567,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854823"/>
+                      <c:h val="0.0478316823300313"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1588,8 +1593,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854823"/>
+                      <c:h val="0.0478316823300313"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1778,8 +1783,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2085835224"/>
-        <c:axId val="2085832280"/>
+        <c:axId val="-2080321456"/>
+        <c:axId val="-2033775248"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1950,11 +1955,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2085841736"/>
-        <c:axId val="2085829160"/>
+        <c:axId val="-2080136768"/>
+        <c:axId val="-2033845808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2085841736"/>
+        <c:axId val="-2080136768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,7 +1999,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2085829160"/>
+        <c:crossAx val="-2033845808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2005,7 +2010,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2085829160"/>
+        <c:axId val="-2033845808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,12 +2020,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085841736"/>
+        <c:crossAx val="-2080136768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2085832280"/>
+        <c:axId val="-2033775248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2030,12 +2035,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085835224"/>
+        <c:crossAx val="-2080321456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2085835224"/>
+        <c:axId val="-2080321456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,7 +2050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085832280"/>
+        <c:crossAx val="-2033775248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2564,7 +2569,7 @@
       <selection activeCell="C20" sqref="C20:C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
@@ -2578,7 +2583,7 @@
     <col min="14" max="14" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.75" customHeight="1">
+    <row r="1" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="15" t="s">
         <v>7</v>
@@ -2596,7 +2601,7 @@
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
-    <row r="2" spans="1:14" ht="28.5" customHeight="1">
+    <row r="2" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
       <c r="B2" s="13" t="s">
         <v>1</v>
@@ -2614,59 +2619,59 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="7" spans="1:14" ht="19.5" customHeight="1">
+    <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="19.5" customHeight="1">
+    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="19.5" customHeight="1">
+    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="19.5" customHeight="1">
+    <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="19.5" customHeight="1">
+    <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="19.5" customHeight="1">
+    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="19.5" customHeight="1">
+    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="1"/>
       <c r="I13" s="2"/>
       <c r="K13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="19.5" customHeight="1">
+    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F14" s="1"/>
       <c r="I14" s="2"/>
       <c r="K14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="19.5" customHeight="1">
+    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="1"/>
       <c r="I15" s="2"/>
       <c r="K15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="19.5" customHeight="1">
+    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F16" s="1"/>
       <c r="I16" s="2"/>
       <c r="K16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="2:14" ht="19.5" customHeight="1" thickBot="1">
+    <row r="17" spans="2:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="I17" s="2"/>
       <c r="K17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="2:14" ht="24" customHeight="1" thickTop="1">
+    <row r="18" spans="2:14" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B18" s="10" t="s">
         <v>6</v>
       </c>
@@ -2677,7 +2682,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="2:14" ht="24" customHeight="1">
+    <row r="19" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
@@ -2696,7 +2701,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="2:14" ht="19.5" customHeight="1">
+    <row r="20" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="14">
         <v>42247</v>
       </c>
@@ -2715,7 +2720,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="2:14" ht="19.5" customHeight="1">
+    <row r="21" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="14">
         <v>42254</v>
       </c>
@@ -2735,7 +2740,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="2:14" ht="19.5" customHeight="1">
+    <row r="22" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="14">
         <v>42261</v>
       </c>
@@ -2754,7 +2759,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="2:14" ht="19.5" customHeight="1">
+    <row r="23" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="14">
         <v>42268</v>
       </c>
@@ -2773,7 +2778,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="2:14" ht="19.5" customHeight="1">
+    <row r="24" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="14">
         <v>42275</v>
       </c>
@@ -2792,7 +2797,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="2:14" ht="19.5" customHeight="1">
+    <row r="25" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="14">
         <v>42282</v>
       </c>
@@ -2811,7 +2816,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="2:14" ht="19.5" customHeight="1">
+    <row r="26" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="14">
         <v>42289</v>
       </c>
@@ -2830,7 +2835,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="2:14" ht="19.5" customHeight="1">
+    <row r="27" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="14">
         <v>42296</v>
       </c>
@@ -2845,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="19.5" customHeight="1">
+    <row r="28" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="14">
         <v>42303</v>
       </c>
@@ -2860,7 +2865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="19.5" customHeight="1">
+    <row r="29" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="14">
         <v>42310</v>
       </c>
@@ -2876,7 +2881,7 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="2:14" ht="19.5" customHeight="1">
+    <row r="30" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="14">
         <v>42317</v>
       </c>
@@ -2891,7 +2896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="19.5" customHeight="1">
+    <row r="31" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="14">
         <v>42324</v>
       </c>
@@ -2906,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="19.5" customHeight="1">
+    <row r="32" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="14">
         <v>42331</v>
       </c>
@@ -2921,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="19.5" customHeight="1">
+    <row r="33" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="14">
         <v>42338</v>
       </c>
@@ -2936,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="19.5" customHeight="1">
+    <row r="34" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="14">
         <v>42345</v>
       </c>
@@ -2951,7 +2956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="19.5" customHeight="1">
+    <row r="35" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="14">
         <v>42352</v>
       </c>
@@ -2973,11 +2978,6 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2988,11 +2988,11 @@
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.5" style="60" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="61" customWidth="1"/>
@@ -3002,7 +3002,7 @@
     <col min="6" max="16384" width="8.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1">
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="52" t="s">
         <v>24</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="2" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="54">
         <v>42247</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="19" customFormat="1" ht="48">
+    <row r="3" spans="1:5" s="19" customFormat="1" ht="52" x14ac:dyDescent="0.15">
       <c r="A3" s="54">
         <v>42247</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="4" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="54">
         <v>42247</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="19" customFormat="1" ht="24">
+    <row r="5" spans="1:5" s="19" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A5" s="54">
         <v>42251</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="6" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="54">
         <v>42254</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="19" customFormat="1" ht="56" customHeight="1">
+    <row r="7" spans="1:5" s="19" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="54">
         <v>42260</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="19" customFormat="1" ht="72">
+    <row r="8" spans="1:5" s="19" customFormat="1" ht="78" x14ac:dyDescent="0.15">
       <c r="A8" s="54">
         <v>42261</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="9" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="54">
         <v>42265</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="10" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="54" t="s">
         <v>104</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="11" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="54" t="s">
         <v>104</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="12" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="54">
         <v>42268</v>
       </c>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="D12" s="45"/>
     </row>
-    <row r="13" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="13" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="54">
         <v>42272</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="14" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="54">
         <v>42274</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="15" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="54">
         <v>42275</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="16" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="54">
         <v>42279</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="17" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="54">
         <v>42279</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="18" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="54">
         <v>42282</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="19" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="54">
         <v>42283</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="20" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="54">
         <v>42286</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="21" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="54">
         <v>42289</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="22" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="54">
         <v>42293</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="23" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="56">
         <v>42293</v>
       </c>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="E23" s="51"/>
     </row>
-    <row r="24" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="24" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="54">
         <v>42296</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="25" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="54">
         <v>42300</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="26" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="54">
         <v>42302</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="27" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="54">
         <v>42305</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="28" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="54">
         <v>42307</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="29" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="54">
         <v>42310</v>
       </c>
@@ -3406,9 +3406,11 @@
       <c r="C29" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="45"/>
-    </row>
-    <row r="30" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+      <c r="D29" s="45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="54">
         <v>42317</v>
       </c>
@@ -3418,9 +3420,11 @@
       <c r="C30" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="45"/>
-    </row>
-    <row r="31" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+      <c r="D30" s="45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="54">
         <v>42324</v>
       </c>
@@ -3430,9 +3434,11 @@
       <c r="C31" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="45"/>
-    </row>
-    <row r="32" spans="1:5" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="D31" s="45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="54">
         <v>42331</v>
       </c>
@@ -3442,9 +3448,11 @@
       <c r="C32" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="45"/>
-    </row>
-    <row r="33" spans="1:4" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="D32" s="45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="54">
         <v>42338</v>
       </c>
@@ -3454,9 +3462,11 @@
       <c r="C33" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="45"/>
-    </row>
-    <row r="34" spans="1:4" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="D33" s="45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="54">
         <v>42345</v>
       </c>
@@ -3466,9 +3476,11 @@
       <c r="C34" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="45"/>
-    </row>
-    <row r="35" spans="1:4" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="D34" s="45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="54">
         <v>42345</v>
       </c>
@@ -3482,7 +3494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="19" customFormat="1" ht="30" customHeight="1">
+    <row r="36" spans="1:4" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="54">
         <v>42352</v>
       </c>
@@ -3496,92 +3508,92 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="37" spans="1:4" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="58"/>
       <c r="B37" s="59"/>
       <c r="D37" s="47"/>
     </row>
-    <row r="38" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="38" spans="1:4" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="58"/>
       <c r="B38" s="59"/>
       <c r="D38" s="47"/>
     </row>
-    <row r="39" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="39" spans="1:4" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="58"/>
       <c r="B39" s="59"/>
       <c r="D39" s="47"/>
     </row>
-    <row r="40" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="40" spans="1:4" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="58"/>
       <c r="B40" s="59"/>
       <c r="D40" s="47"/>
     </row>
-    <row r="41" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="41" spans="1:4" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="58"/>
       <c r="B41" s="59"/>
       <c r="D41" s="47"/>
     </row>
-    <row r="42" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="42" spans="1:4" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="58"/>
       <c r="B42" s="59"/>
       <c r="D42" s="47"/>
     </row>
-    <row r="43" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="43" spans="1:4" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="58"/>
       <c r="B43" s="59"/>
       <c r="D43" s="47"/>
     </row>
-    <row r="44" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="44" spans="1:4" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="58"/>
       <c r="B44" s="59"/>
       <c r="D44" s="47"/>
     </row>
-    <row r="45" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="45" spans="1:4" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="58"/>
       <c r="B45" s="59"/>
       <c r="D45" s="47"/>
     </row>
-    <row r="46" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="46" spans="1:4" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="58"/>
       <c r="B46" s="59"/>
       <c r="D46" s="47"/>
     </row>
-    <row r="47" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="47" spans="1:4" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="58"/>
       <c r="B47" s="59"/>
       <c r="D47" s="47"/>
     </row>
-    <row r="48" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="48" spans="1:4" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="58"/>
       <c r="B48" s="59"/>
       <c r="D48" s="47"/>
     </row>
-    <row r="49" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="49" spans="1:4" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="58"/>
       <c r="B49" s="59"/>
       <c r="D49" s="47"/>
     </row>
-    <row r="50" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="50" spans="1:4" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="58"/>
       <c r="B50" s="59"/>
       <c r="D50" s="47"/>
     </row>
-    <row r="51" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="51" spans="1:4" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="58"/>
       <c r="B51" s="59"/>
       <c r="D51" s="47"/>
     </row>
-    <row r="52" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="52" spans="1:4" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="58"/>
       <c r="B52" s="59"/>
       <c r="D52" s="47"/>
     </row>
-    <row r="53" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="53" spans="1:4" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="58"/>
       <c r="B53" s="59"/>
       <c r="D53" s="47"/>
     </row>
-    <row r="54" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="54" spans="1:4" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="58"/>
       <c r="B54" s="59"/>
       <c r="D54" s="47"/>
@@ -3590,11 +3602,6 @@
   <printOptions gridLines="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="63" fitToHeight="0" orientation="landscape"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3606,7 +3613,7 @@
       <selection sqref="A1:D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="39.83203125" customWidth="1"/>
@@ -3614,7 +3621,7 @@
     <col min="4" max="4" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13">
+    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
         <v>44</v>
       </c>
@@ -3628,7 +3635,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13">
+    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
         <v>48</v>
       </c>
@@ -3640,7 +3647,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13">
+    <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="23"/>
       <c r="B3" s="24" t="s">
         <v>51</v>
@@ -3648,7 +3655,7 @@
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
     </row>
-    <row r="4" spans="1:4" ht="13">
+    <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
         <v>52</v>
       </c>
@@ -3658,7 +3665,7 @@
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
     </row>
-    <row r="5" spans="1:4" ht="13">
+    <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
         <v>54</v>
       </c>
@@ -3672,13 +3679,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13">
+    <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="23"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" ht="13">
+    <row r="7" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="28" t="s">
         <v>57</v>
       </c>
@@ -3690,7 +3697,7 @@
       </c>
       <c r="D7" s="29"/>
     </row>
-    <row r="8" spans="1:4" ht="13">
+    <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24" t="s">
@@ -3698,7 +3705,7 @@
       </c>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" ht="13">
+    <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
       <c r="B9" s="31"/>
       <c r="C9" s="32" t="s">
@@ -3706,7 +3713,7 @@
       </c>
       <c r="D9" s="31"/>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>62</v>
       </c>
@@ -3720,7 +3727,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13">
+    <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="23"/>
       <c r="B11" s="34"/>
       <c r="C11" s="24" t="s">
@@ -3728,7 +3735,7 @@
       </c>
       <c r="D11" s="24"/>
     </row>
-    <row r="12" spans="1:4" ht="13">
+    <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="23"/>
       <c r="B12" s="24"/>
       <c r="C12" s="27" t="s">
@@ -3736,7 +3743,7 @@
       </c>
       <c r="D12" s="24"/>
     </row>
-    <row r="13" spans="1:4" ht="13">
+    <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="28" t="s">
         <v>65</v>
       </c>
@@ -3750,7 +3757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13">
+    <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31" t="s">
@@ -3758,7 +3765,7 @@
       </c>
       <c r="D14" s="31"/>
     </row>
-    <row r="15" spans="1:4" ht="13">
+    <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
         <v>66</v>
       </c>
@@ -3770,7 +3777,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13">
+    <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
       <c r="C16" s="31" t="s">
@@ -3780,7 +3787,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13">
+    <row r="17" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="28" t="s">
         <v>69</v>
       </c>
@@ -3794,7 +3801,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13">
+    <row r="18" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
       <c r="B18" s="31" t="s">
         <v>92</v>
@@ -3804,7 +3811,7 @@
       </c>
       <c r="D18" s="31"/>
     </row>
-    <row r="19" spans="1:4" ht="13">
+    <row r="19" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="23" t="s">
         <v>71</v>
       </c>
@@ -3814,7 +3821,7 @@
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="1:4" ht="13">
+    <row r="20" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24" t="s">
@@ -3822,7 +3829,7 @@
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="1:4" ht="13">
+    <row r="21" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="28" t="s">
         <v>72</v>
       </c>
@@ -3834,7 +3841,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13">
+    <row r="22" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
       <c r="B22" s="31"/>
       <c r="C22" s="32" t="s">
@@ -3844,7 +3851,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13">
+    <row r="23" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="23" t="s">
         <v>75</v>
       </c>
@@ -3856,13 +3863,13 @@
       </c>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="13">
+    <row r="24" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="25" spans="1:4" ht="13">
+    <row r="25" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="35" t="s">
         <v>77</v>
       </c>
@@ -3876,7 +3883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13">
+    <row r="26" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="37"/>
       <c r="B26" s="38"/>
       <c r="C26" s="24" t="s">
@@ -3884,7 +3891,7 @@
       </c>
       <c r="D26" s="31"/>
     </row>
-    <row r="27" spans="1:4" ht="13">
+    <row r="27" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="35" t="s">
         <v>78</v>
       </c>
@@ -3896,7 +3903,7 @@
       </c>
       <c r="D27" s="24"/>
     </row>
-    <row r="28" spans="1:4" ht="13">
+    <row r="28" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31" t="s">
@@ -3904,7 +3911,7 @@
       </c>
       <c r="D28" s="24"/>
     </row>
-    <row r="29" spans="1:4" ht="13">
+    <row r="29" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="28" t="s">
         <v>80</v>
       </c>
@@ -3916,7 +3923,7 @@
       </c>
       <c r="D29" s="29"/>
     </row>
-    <row r="30" spans="1:4" ht="13">
+    <row r="30" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
       <c r="B30" s="31" t="s">
         <v>90</v>
@@ -3926,7 +3933,7 @@
       </c>
       <c r="D30" s="31"/>
     </row>
-    <row r="31" spans="1:4" ht="13">
+    <row r="31" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="23" t="s">
         <v>81</v>
       </c>
@@ -3938,7 +3945,7 @@
       </c>
       <c r="D31" s="24"/>
     </row>
-    <row r="32" spans="1:4" ht="13">
+    <row r="32" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="23"/>
       <c r="B32" s="24" t="s">
         <v>93</v>
@@ -3948,7 +3955,7 @@
       </c>
       <c r="D32" s="24"/>
     </row>
-    <row r="33" spans="1:4" ht="13">
+    <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
       <c r="B33" s="31"/>
       <c r="C33" s="31" t="s">
@@ -3956,7 +3963,7 @@
       </c>
       <c r="D33" s="24"/>
     </row>
-    <row r="34" spans="1:4" ht="13">
+    <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="28" t="s">
         <v>84</v>
       </c>
@@ -3968,7 +3975,7 @@
       </c>
       <c r="D34" s="29"/>
     </row>
-    <row r="35" spans="1:4" ht="13">
+    <row r="35" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="30"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31" t="s">
@@ -3979,11 +3986,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3994,11 +3996,11 @@
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="B1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="39"/>
     <col min="2" max="2" width="22.33203125" style="39" customWidth="1"/>
@@ -4007,12 +4009,12 @@
     <col min="5" max="16384" width="8.83203125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
         <v>24</v>
       </c>
@@ -4020,7 +4022,7 @@
         <v>42252</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="40" t="s">
         <v>95</v>
       </c>
@@ -4034,7 +4036,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1">
+    <row r="4" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="43" t="s">
         <v>98</v>
       </c>
@@ -4048,7 +4050,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1">
+    <row r="5" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="43" t="s">
         <v>101</v>
       </c>
@@ -4062,7 +4064,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1">
+    <row r="6" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="43" t="s">
         <v>99</v>
       </c>
@@ -4070,28 +4072,28 @@
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
     </row>
-    <row r="7" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1">
+    <row r="7" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="43"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
     </row>
-    <row r="8" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1">
+    <row r="8" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
     </row>
-    <row r="9" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1">
+    <row r="9" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="43"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
     </row>
-    <row r="10" spans="1:4" s="41" customFormat="1"/>
-    <row r="11" spans="1:4" s="41" customFormat="1"/>
-    <row r="12" spans="1:4" s="41" customFormat="1"/>
-    <row r="13" spans="1:4" s="41" customFormat="1"/>
+    <row r="10" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <conditionalFormatting sqref="A4:A8">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -4106,11 +4108,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="landscape"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 

--- a/HW 1/Project Plan.xlsx
+++ b/HW 1/Project Plan.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="153">
   <si>
     <t>Project Start</t>
   </si>
@@ -2988,8 +2988,8 @@
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3169,7 +3169,9 @@
       <c r="C12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="45" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="54">

--- a/HW 1/Project Plan.xlsx
+++ b/HW 1/Project Plan.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marist User\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="0" windowWidth="25260" windowHeight="12200" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Project Timeline" sheetId="1" r:id="rId1"/>
     <sheet name="Project Plan Details" sheetId="2" r:id="rId2"/>
     <sheet name="Week Class Sched - Fall2015" sheetId="3" r:id="rId3"/>
     <sheet name="Weekly Status Reports" sheetId="4" r:id="rId4"/>
+    <sheet name="URD" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Project Timeline'!$A$1:$N$17</definedName>
     <definedName name="ProjectEnd">'Project Timeline'!$L$21</definedName>
     <definedName name="ProjectStart">'Project Timeline'!$L$19</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="174">
   <si>
     <t>Project Start</t>
   </si>
@@ -511,6 +517,69 @@
   </si>
   <si>
     <t>Should the documentation be in one massive pdf or separate word docs? Also is there a certain way they should be laid out?</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Requirment</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Database of all classes from Marist college</t>
+  </si>
+  <si>
+    <t>Database of all classes from DCC</t>
+  </si>
+  <si>
+    <t>Selection tool for all classes in the system</t>
+  </si>
+  <si>
+    <t>New course submission tool</t>
+  </si>
+  <si>
+    <t>Dashboard to review submitted courses with a approve/reject function that will automatically update the database</t>
+  </si>
+  <si>
+    <t>Basic information submision form</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Create a user account to save information and data</t>
+  </si>
+  <si>
+    <t>Create a report for number of transferable credits</t>
+  </si>
+  <si>
+    <t>Create a report of all classes they must complete for a Marist degree</t>
+  </si>
+  <si>
+    <t>Function to request more information</t>
+  </si>
+  <si>
+    <t>Ticket/email system for communication between student and addmissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save function for courses users have entered/selected </t>
+  </si>
+  <si>
+    <t>Dashboard to update program requirments for each major</t>
+  </si>
+  <si>
+    <t>Function to update course equivalencies when needed</t>
+  </si>
+  <si>
+    <t>Easy to expand and include other two-year college partners</t>
+  </si>
+  <si>
+    <t>Admin login/dashboards</t>
+  </si>
+  <si>
+    <t>Admissions accounts and features</t>
   </si>
 </sst>
 </file>
@@ -654,10 +723,11 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,6 +767,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -946,7 +1034,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1119,6 +1207,22 @@
     <xf numFmtId="14" fontId="6" fillId="4" borderId="5" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Calculation" xfId="6" builtinId="22"/>
@@ -1254,10 +1358,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0643993396585144"/>
-          <c:y val="0.039426523297491"/>
-          <c:w val="0.877744358810272"/>
-          <c:h val="0.921146953405018"/>
+          <c:x val="6.4399339658514396E-2"/>
+          <c:y val="3.9426523297491002E-2"/>
+          <c:w val="0.87774435881027202"/>
+          <c:h val="0.92114695340501795"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1287,8 +1391,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.23463193537377E-17"/>
-                  <c:y val="-4.10688206710323E-18"/>
+                  <c:x val="-1.2346319353737699E-17"/>
+                  <c:y val="-4.1068820671032299E-18"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -1302,8 +1406,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854822999"/>
+                      <c:h val="4.7831682330031301E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1314,7 +1418,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-2.19490121844227E-17"/>
-                  <c:y val="-4.10688206710323E-18"/>
+                  <c:y val="-4.1068820671032299E-18"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -1328,8 +1432,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854822999"/>
+                      <c:h val="4.7831682330031301E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1340,7 +1444,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-2.19490121844227E-17"/>
-                  <c:y val="4.10688206710323E-18"/>
+                  <c:y val="4.1068820671032299E-18"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -1354,8 +1458,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854822999"/>
+                      <c:h val="4.7831682330031301E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1365,8 +1469,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.09745060922113E-17"/>
-                  <c:y val="-4.10688206710323E-18"/>
+                  <c:x val="-1.0974506092211301E-17"/>
+                  <c:y val="-4.1068820671032299E-18"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -1380,8 +1484,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854822999"/>
+                      <c:h val="4.7831682330031301E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1391,8 +1495,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.09745060922113E-17"/>
-                  <c:y val="4.10688206710323E-18"/>
+                  <c:x val="-1.0974506092211301E-17"/>
+                  <c:y val="4.1068820671032299E-18"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -1406,8 +1510,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854822999"/>
+                      <c:h val="4.7831682330031301E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1417,8 +1521,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.09745060922113E-17"/>
-                  <c:y val="-4.10688206710323E-18"/>
+                  <c:x val="-1.0974506092211301E-17"/>
+                  <c:y val="-4.1068820671032299E-18"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -1432,8 +1536,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854822999"/>
+                      <c:h val="4.7831682330031301E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1443,8 +1547,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.09745060922113E-17"/>
-                  <c:y val="4.10688206710323E-18"/>
+                  <c:x val="-1.0974506092211301E-17"/>
+                  <c:y val="4.1068820671032299E-18"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -1458,8 +1562,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854822999"/>
+                      <c:h val="4.7831682330031301E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1469,8 +1573,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.09745060922113E-17"/>
-                  <c:y val="-4.10688206710323E-18"/>
+                  <c:x val="-1.0974506092211301E-17"/>
+                  <c:y val="-4.1068820671032299E-18"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -1484,8 +1588,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854822999"/>
+                      <c:h val="4.7831682330031301E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1495,8 +1599,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.09745060922113E-17"/>
-                  <c:y val="4.10688206710323E-18"/>
+                  <c:x val="-1.0974506092211301E-17"/>
+                  <c:y val="4.1068820671032299E-18"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -1510,8 +1614,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854822999"/>
+                      <c:h val="4.7831682330031301E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1521,8 +1625,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.09745060922113E-17"/>
-                  <c:y val="-4.10688206710323E-18"/>
+                  <c:x val="-1.0974506092211301E-17"/>
+                  <c:y val="-4.1068820671032299E-18"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -1536,8 +1640,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854822999"/>
+                      <c:h val="4.7831682330031301E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1548,7 +1652,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.86566603567592E-16"/>
-                  <c:y val="4.10688206710323E-18"/>
+                  <c:y val="4.1068820671032299E-18"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -1562,8 +1666,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854822999"/>
+                      <c:h val="4.7831682330031301E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1573,8 +1677,8 @@
               <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.09745060922113E-17"/>
-                  <c:y val="-4.10688206710323E-18"/>
+                  <c:x val="-1.0974506092211301E-17"/>
+                  <c:y val="-4.1068820671032299E-18"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -1588,8 +1692,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.11206097854822998"/>
-                      <c:h val="4.7831682330031315E-2"/>
+                      <c:w val="0.11206097854822999"/>
+                      <c:h val="4.7831682330031301E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1635,7 +1739,6 @@
                     <a:avLst/>
                   </a:prstGeom>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1644,7 +1747,7 @@
             <c:errBarType val="minus"/>
             <c:errValType val="percentage"/>
             <c:noEndCap val="0"/>
-            <c:val val="100.0"/>
+            <c:val val="100"/>
             <c:spPr>
               <a:ln>
                 <a:solidFill>
@@ -1718,52 +1821,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>-5.0</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5.0</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-5.0</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-5.0</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1778,8 +1881,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2085835224"/>
-        <c:axId val="2085832280"/>
+        <c:axId val="482825296"/>
+        <c:axId val="482827256"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1822,61 +1925,61 @@
             <c:errBarType val="both"/>
             <c:errValType val="percentage"/>
             <c:noEndCap val="0"/>
-            <c:val val="5.0"/>
+            <c:val val="5"/>
           </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>'Project Timeline'!$B$20:$B$35</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>42247.0</c:v>
+                  <c:v>42247</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42254.0</c:v>
+                  <c:v>42254</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42261.0</c:v>
+                  <c:v>42261</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42268.0</c:v>
+                  <c:v>42268</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42275.0</c:v>
+                  <c:v>42275</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42282.0</c:v>
+                  <c:v>42282</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42289.0</c:v>
+                  <c:v>42289</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42296.0</c:v>
+                  <c:v>42296</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42303.0</c:v>
+                  <c:v>42303</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42310.0</c:v>
+                  <c:v>42310</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42317.0</c:v>
+                  <c:v>42317</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42324.0</c:v>
+                  <c:v>42324</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42331.0</c:v>
+                  <c:v>42331</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42338.0</c:v>
+                  <c:v>42338</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42345.0</c:v>
+                  <c:v>42345</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42352.0</c:v>
+                  <c:v>42352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1888,52 +1991,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1950,11 +2053,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2085841736"/>
-        <c:axId val="2085829160"/>
+        <c:axId val="482826080"/>
+        <c:axId val="482826864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2085841736"/>
+        <c:axId val="482826080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,18 +2097,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2085829160"/>
+        <c:crossAx val="482826864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="1.0"/>
+        <c:majorUnit val="1"/>
         <c:majorTimeUnit val="months"/>
-        <c:minorUnit val="7.0"/>
+        <c:minorUnit val="7"/>
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2085829160"/>
+        <c:axId val="482826864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,12 +2118,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085841736"/>
+        <c:crossAx val="482826080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2085832280"/>
+        <c:axId val="482827256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2030,12 +2133,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085835224"/>
+        <c:crossAx val="482825296"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2085835224"/>
+        <c:axId val="482825296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,7 +2148,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085832280"/>
+        <c:crossAx val="482827256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2308,6 +2411,92 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3419475</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2724150" y="4581525"/>
+          <a:ext cx="1914525" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>M</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> = Mandatory requirment</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>D = Desirable requirment</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>O = Optional requirment</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ProjectDetails" displayName="ProjectDetails" ref="B19:E35" totalsRowShown="0">
   <tableColumns count="4">
@@ -2554,7 +2743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="3"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
@@ -2564,21 +2753,21 @@
       <selection activeCell="C20" sqref="C20:C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.75" customHeight="1">
+    <row r="1" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="15" t="s">
         <v>7</v>
@@ -2596,7 +2785,7 @@
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
-    <row r="2" spans="1:14" ht="28.5" customHeight="1">
+    <row r="2" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="13" t="s">
         <v>1</v>
@@ -2614,59 +2803,59 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="7" spans="1:14" ht="19.5" customHeight="1">
+    <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="19.5" customHeight="1">
+    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="19.5" customHeight="1">
+    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="19.5" customHeight="1">
+    <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="19.5" customHeight="1">
+    <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="19.5" customHeight="1">
+    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="19.5" customHeight="1">
+    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F13" s="1"/>
       <c r="I13" s="2"/>
       <c r="K13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="19.5" customHeight="1">
+    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F14" s="1"/>
       <c r="I14" s="2"/>
       <c r="K14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="19.5" customHeight="1">
+    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F15" s="1"/>
       <c r="I15" s="2"/>
       <c r="K15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="19.5" customHeight="1">
+    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F16" s="1"/>
       <c r="I16" s="2"/>
       <c r="K16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="2:14" ht="19.5" customHeight="1" thickBot="1">
+    <row r="17" spans="2:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I17" s="2"/>
       <c r="K17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="2:14" ht="24" customHeight="1" thickTop="1">
+    <row r="18" spans="2:14" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
         <v>6</v>
       </c>
@@ -2677,7 +2866,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="2:14" ht="24" customHeight="1">
+    <row r="19" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
@@ -2696,7 +2885,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="2:14" ht="19.5" customHeight="1">
+    <row r="20" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="14">
         <v>42247</v>
       </c>
@@ -2715,7 +2904,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="2:14" ht="19.5" customHeight="1">
+    <row r="21" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="14">
         <v>42254</v>
       </c>
@@ -2735,7 +2924,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="2:14" ht="19.5" customHeight="1">
+    <row r="22" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="14">
         <v>42261</v>
       </c>
@@ -2754,7 +2943,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="2:14" ht="19.5" customHeight="1">
+    <row r="23" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="14">
         <v>42268</v>
       </c>
@@ -2773,7 +2962,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="2:14" ht="19.5" customHeight="1">
+    <row r="24" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="14">
         <v>42275</v>
       </c>
@@ -2792,7 +2981,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="2:14" ht="19.5" customHeight="1">
+    <row r="25" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="14">
         <v>42282</v>
       </c>
@@ -2811,7 +3000,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="2:14" ht="19.5" customHeight="1">
+    <row r="26" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="14">
         <v>42289</v>
       </c>
@@ -2830,7 +3019,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="2:14" ht="19.5" customHeight="1">
+    <row r="27" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="14">
         <v>42296</v>
       </c>
@@ -2845,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="19.5" customHeight="1">
+    <row r="28" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="14">
         <v>42303</v>
       </c>
@@ -2860,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="19.5" customHeight="1">
+    <row r="29" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="14">
         <v>42310</v>
       </c>
@@ -2876,7 +3065,7 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="2:14" ht="19.5" customHeight="1">
+    <row r="30" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="14">
         <v>42317</v>
       </c>
@@ -2891,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="19.5" customHeight="1">
+    <row r="31" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="14">
         <v>42324</v>
       </c>
@@ -2906,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="19.5" customHeight="1">
+    <row r="32" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="14">
         <v>42331</v>
       </c>
@@ -2921,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="19.5" customHeight="1">
+    <row r="33" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="14">
         <v>42338</v>
       </c>
@@ -2936,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="19.5" customHeight="1">
+    <row r="34" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="14">
         <v>42345</v>
       </c>
@@ -2951,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="19.5" customHeight="1">
+    <row r="35" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="14">
         <v>42352</v>
       </c>
@@ -2973,36 +3162,31 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="60" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="61" customWidth="1"/>
-    <col min="3" max="3" width="58.6640625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="48" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="60" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="61" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="48" customWidth="1"/>
     <col min="5" max="5" width="92" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="18"/>
+    <col min="6" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1">
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>24</v>
       </c>
@@ -3019,7 +3203,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="2" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="54">
         <v>42247</v>
       </c>
@@ -3033,7 +3217,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="19" customFormat="1" ht="48">
+    <row r="3" spans="1:5" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="54">
         <v>42247</v>
       </c>
@@ -3047,7 +3231,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="4" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="54">
         <v>42247</v>
       </c>
@@ -3061,7 +3245,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="19" customFormat="1" ht="24">
+    <row r="5" spans="1:5" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="54">
         <v>42251</v>
       </c>
@@ -3075,7 +3259,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="6" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="54">
         <v>42254</v>
       </c>
@@ -3089,7 +3273,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="19" customFormat="1" ht="56" customHeight="1">
+    <row r="7" spans="1:5" s="19" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="54">
         <v>42260</v>
       </c>
@@ -3103,7 +3287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="19" customFormat="1" ht="72">
+    <row r="8" spans="1:5" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A8" s="54">
         <v>42261</v>
       </c>
@@ -3117,7 +3301,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="9" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="54">
         <v>42265</v>
       </c>
@@ -3131,7 +3315,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="10" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="54" t="s">
         <v>104</v>
       </c>
@@ -3145,7 +3329,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="11" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="54" t="s">
         <v>104</v>
       </c>
@@ -3159,7 +3343,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="12" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="54">
         <v>42268</v>
       </c>
@@ -3169,9 +3353,11 @@
       <c r="C12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="45"/>
-    </row>
-    <row r="13" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+      <c r="D12" s="45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="54">
         <v>42272</v>
       </c>
@@ -3185,7 +3371,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="14" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54">
         <v>42274</v>
       </c>
@@ -3199,7 +3385,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="15" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="54">
         <v>42275</v>
       </c>
@@ -3213,7 +3399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="16" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54">
         <v>42279</v>
       </c>
@@ -3227,7 +3413,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="17" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54">
         <v>42279</v>
       </c>
@@ -3241,7 +3427,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="18" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="54">
         <v>42282</v>
       </c>
@@ -3255,7 +3441,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="19" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="54">
         <v>42283</v>
       </c>
@@ -3269,7 +3455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="20" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="54">
         <v>42286</v>
       </c>
@@ -3283,7 +3469,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="21" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54">
         <v>42289</v>
       </c>
@@ -3297,7 +3483,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="22" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="54">
         <v>42293</v>
       </c>
@@ -3311,7 +3497,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="23" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="56">
         <v>42293</v>
       </c>
@@ -3326,7 +3512,7 @@
       </c>
       <c r="E23" s="51"/>
     </row>
-    <row r="24" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="24" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54">
         <v>42296</v>
       </c>
@@ -3340,7 +3526,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="25" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54">
         <v>42300</v>
       </c>
@@ -3354,7 +3540,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="26" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54">
         <v>42302</v>
       </c>
@@ -3368,7 +3554,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="27" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="54">
         <v>42305</v>
       </c>
@@ -3382,7 +3568,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="28" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="54">
         <v>42307</v>
       </c>
@@ -3396,7 +3582,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+    <row r="29" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="54">
         <v>42310</v>
       </c>
@@ -3406,9 +3592,11 @@
       <c r="C29" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="45"/>
-    </row>
-    <row r="30" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+      <c r="D29" s="45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="54">
         <v>42317</v>
       </c>
@@ -3418,9 +3606,11 @@
       <c r="C30" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="45"/>
-    </row>
-    <row r="31" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1">
+      <c r="D30" s="45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54">
         <v>42324</v>
       </c>
@@ -3430,9 +3620,11 @@
       <c r="C31" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="45"/>
-    </row>
-    <row r="32" spans="1:5" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="D31" s="45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="54">
         <v>42331</v>
       </c>
@@ -3442,9 +3634,11 @@
       <c r="C32" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="45"/>
-    </row>
-    <row r="33" spans="1:4" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="D32" s="45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="54">
         <v>42338</v>
       </c>
@@ -3454,9 +3648,11 @@
       <c r="C33" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="45"/>
-    </row>
-    <row r="34" spans="1:4" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="D33" s="45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="54">
         <v>42345</v>
       </c>
@@ -3466,9 +3662,11 @@
       <c r="C34" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="45"/>
-    </row>
-    <row r="35" spans="1:4" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="D34" s="45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="54">
         <v>42345</v>
       </c>
@@ -3482,7 +3680,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="19" customFormat="1" ht="30" customHeight="1">
+    <row r="36" spans="1:4" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="54">
         <v>42352</v>
       </c>
@@ -3496,92 +3694,92 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="37" spans="1:4" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="58"/>
       <c r="B37" s="59"/>
       <c r="D37" s="47"/>
     </row>
-    <row r="38" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="38" spans="1:4" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="58"/>
       <c r="B38" s="59"/>
       <c r="D38" s="47"/>
     </row>
-    <row r="39" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="39" spans="1:4" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="58"/>
       <c r="B39" s="59"/>
       <c r="D39" s="47"/>
     </row>
-    <row r="40" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="40" spans="1:4" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="58"/>
       <c r="B40" s="59"/>
       <c r="D40" s="47"/>
     </row>
-    <row r="41" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="41" spans="1:4" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="58"/>
       <c r="B41" s="59"/>
       <c r="D41" s="47"/>
     </row>
-    <row r="42" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="42" spans="1:4" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="58"/>
       <c r="B42" s="59"/>
       <c r="D42" s="47"/>
     </row>
-    <row r="43" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="43" spans="1:4" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="58"/>
       <c r="B43" s="59"/>
       <c r="D43" s="47"/>
     </row>
-    <row r="44" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="44" spans="1:4" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="58"/>
       <c r="B44" s="59"/>
       <c r="D44" s="47"/>
     </row>
-    <row r="45" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="45" spans="1:4" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="58"/>
       <c r="B45" s="59"/>
       <c r="D45" s="47"/>
     </row>
-    <row r="46" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="46" spans="1:4" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="58"/>
       <c r="B46" s="59"/>
       <c r="D46" s="47"/>
     </row>
-    <row r="47" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="47" spans="1:4" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="58"/>
       <c r="B47" s="59"/>
       <c r="D47" s="47"/>
     </row>
-    <row r="48" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="48" spans="1:4" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="58"/>
       <c r="B48" s="59"/>
       <c r="D48" s="47"/>
     </row>
-    <row r="49" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="49" spans="1:4" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="58"/>
       <c r="B49" s="59"/>
       <c r="D49" s="47"/>
     </row>
-    <row r="50" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="50" spans="1:4" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="58"/>
       <c r="B50" s="59"/>
       <c r="D50" s="47"/>
     </row>
-    <row r="51" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="51" spans="1:4" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="58"/>
       <c r="B51" s="59"/>
       <c r="D51" s="47"/>
     </row>
-    <row r="52" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="52" spans="1:4" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="58"/>
       <c r="B52" s="59"/>
       <c r="D52" s="47"/>
     </row>
-    <row r="53" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="53" spans="1:4" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="58"/>
       <c r="B53" s="59"/>
       <c r="D53" s="47"/>
     </row>
-    <row r="54" spans="1:4" s="20" customFormat="1" ht="12">
+    <row r="54" spans="1:4" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="58"/>
       <c r="B54" s="59"/>
       <c r="D54" s="47"/>
@@ -3590,11 +3788,6 @@
   <printOptions gridLines="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="63" fitToHeight="0" orientation="landscape"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3606,15 +3799,15 @@
       <selection sqref="A1:D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="39.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>44</v>
       </c>
@@ -3628,7 +3821,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>48</v>
       </c>
@@ -3640,7 +3833,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="24" t="s">
         <v>51</v>
@@ -3648,7 +3841,7 @@
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
     </row>
-    <row r="4" spans="1:4" ht="13">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>52</v>
       </c>
@@ -3658,7 +3851,7 @@
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
     </row>
-    <row r="5" spans="1:4" ht="13">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>54</v>
       </c>
@@ -3672,13 +3865,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" ht="13">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>57</v>
       </c>
@@ -3690,7 +3883,7 @@
       </c>
       <c r="D7" s="29"/>
     </row>
-    <row r="8" spans="1:4" ht="13">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24" t="s">
@@ -3698,7 +3891,7 @@
       </c>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" ht="13">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="31"/>
       <c r="C9" s="32" t="s">
@@ -3706,7 +3899,7 @@
       </c>
       <c r="D9" s="31"/>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>62</v>
       </c>
@@ -3720,7 +3913,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="34"/>
       <c r="C11" s="24" t="s">
@@ -3728,7 +3921,7 @@
       </c>
       <c r="D11" s="24"/>
     </row>
-    <row r="12" spans="1:4" ht="13">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="24"/>
       <c r="C12" s="27" t="s">
@@ -3736,7 +3929,7 @@
       </c>
       <c r="D12" s="24"/>
     </row>
-    <row r="13" spans="1:4" ht="13">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>65</v>
       </c>
@@ -3750,7 +3943,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31" t="s">
@@ -3758,7 +3951,7 @@
       </c>
       <c r="D14" s="31"/>
     </row>
-    <row r="15" spans="1:4" ht="13">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>66</v>
       </c>
@@ -3770,7 +3963,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
       <c r="C16" s="31" t="s">
@@ -3780,7 +3973,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>69</v>
       </c>
@@ -3794,7 +3987,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="31" t="s">
         <v>92</v>
@@ -3804,7 +3997,7 @@
       </c>
       <c r="D18" s="31"/>
     </row>
-    <row r="19" spans="1:4" ht="13">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>71</v>
       </c>
@@ -3814,7 +4007,7 @@
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="1:4" ht="13">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24" t="s">
@@ -3822,7 +4015,7 @@
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="1:4" ht="13">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>72</v>
       </c>
@@ -3834,7 +4027,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="31"/>
       <c r="C22" s="32" t="s">
@@ -3844,7 +4037,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>75</v>
       </c>
@@ -3856,13 +4049,13 @@
       </c>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="1:4" ht="13">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
     </row>
-    <row r="25" spans="1:4" ht="13">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>77</v>
       </c>
@@ -3876,7 +4069,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="38"/>
       <c r="C26" s="24" t="s">
@@ -3884,7 +4077,7 @@
       </c>
       <c r="D26" s="31"/>
     </row>
-    <row r="27" spans="1:4" ht="13">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
         <v>78</v>
       </c>
@@ -3896,7 +4089,7 @@
       </c>
       <c r="D27" s="24"/>
     </row>
-    <row r="28" spans="1:4" ht="13">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31" t="s">
@@ -3904,7 +4097,7 @@
       </c>
       <c r="D28" s="24"/>
     </row>
-    <row r="29" spans="1:4" ht="13">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>80</v>
       </c>
@@ -3916,7 +4109,7 @@
       </c>
       <c r="D29" s="29"/>
     </row>
-    <row r="30" spans="1:4" ht="13">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="31" t="s">
         <v>90</v>
@@ -3926,7 +4119,7 @@
       </c>
       <c r="D30" s="31"/>
     </row>
-    <row r="31" spans="1:4" ht="13">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>81</v>
       </c>
@@ -3938,7 +4131,7 @@
       </c>
       <c r="D31" s="24"/>
     </row>
-    <row r="32" spans="1:4" ht="13">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="24" t="s">
         <v>93</v>
@@ -3948,7 +4141,7 @@
       </c>
       <c r="D32" s="24"/>
     </row>
-    <row r="33" spans="1:4" ht="13">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
       <c r="B33" s="31"/>
       <c r="C33" s="31" t="s">
@@ -3956,7 +4149,7 @@
       </c>
       <c r="D33" s="24"/>
     </row>
-    <row r="34" spans="1:4" ht="13">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>84</v>
       </c>
@@ -3968,7 +4161,7 @@
       </c>
       <c r="D34" s="29"/>
     </row>
-    <row r="35" spans="1:4" ht="13">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="30"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31" t="s">
@@ -3979,40 +4172,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="B1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="39"/>
-    <col min="2" max="2" width="22.33203125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="39"/>
+    <col min="2" max="2" width="22.28515625" style="39" customWidth="1"/>
     <col min="3" max="3" width="46" style="39" customWidth="1"/>
-    <col min="4" max="4" width="72.83203125" style="39" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="39"/>
+    <col min="4" max="4" width="72.85546875" style="39" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
         <v>24</v>
       </c>
@@ -4020,7 +4208,7 @@
         <v>42252</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>95</v>
       </c>
@@ -4034,7 +4222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1">
+    <row r="4" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>98</v>
       </c>
@@ -4048,7 +4236,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1">
+    <row r="5" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
         <v>101</v>
       </c>
@@ -4062,7 +4250,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1">
+    <row r="6" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
         <v>99</v>
       </c>
@@ -4070,28 +4258,28 @@
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
     </row>
-    <row r="7" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1">
+    <row r="7" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="43"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
     </row>
-    <row r="8" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1">
+    <row r="8" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
     </row>
-    <row r="9" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1">
+    <row r="9" spans="1:4" s="41" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="43"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
     </row>
-    <row r="10" spans="1:4" s="41" customFormat="1"/>
-    <row r="11" spans="1:4" s="41" customFormat="1"/>
-    <row r="12" spans="1:4" s="41" customFormat="1"/>
-    <row r="13" spans="1:4" s="41" customFormat="1"/>
+    <row r="10" spans="1:4" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:4" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:4" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="A4:A8">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -4106,11 +4294,192 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="landscape"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="73.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="64" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="68"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="68"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="68"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="68"/>
+    </row>
+    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="68"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="68"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="71"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="68"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="68"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="68"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="71"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="68"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="68"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="68"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="71"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="71"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="71"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
